--- a/02_MasterWifoMannheim/99_Backup/Course128.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course128.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811592F70F15291F8F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19C11E5-4A12-4135-A67D-7435850FBE84}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 680 Challenges of Public and Nonprofit Management – Case Study Seminar</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>World-wide public and nonprofit organizations make an important contribution to society. In order to face the increasing economization and globalization in the public and nonprofit sector, organizations need to professionalize. specific organizational purpose, these tendencies pose particular challenges to public and nonprofit management. These will be highlighted by analyzing scientific papers and by discussing practical cases and project work.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students will be able to  explain the particularities of public and nonprofit management,  apply general management methods in the public and nonprofit sector,  evaluate the development of specific concepts for public and nonprofit organizations, discuss hypotheses and findings in the field of public and nonprofit management.  critically analyze scientific papers. Moreover, key competences such as presentation competence, working with academic papers and team competences shall be acquired.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Presentation (40%) and written seminar work (60%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Bernd Helmig</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 680 Challenges of Public and Nonprofit Management – Case Study Seminar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>World-wide public and nonprofit organizations make an important contribution to society. In order to face the increasing economization and globalization in the public and nonprofit sector, organizations need to professionalize. specific organizational purpose, these tendencies pose particular challenges to public and nonprofit management. These will be highlighted by analyzing scientific papers and by discussing practical cases and project work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students will be able to  explain the particularities of public and nonprofit management,  apply general management methods in the public and nonprofit sector,  evaluate the development of specific concepts for public and nonprofit organizations, discuss hypotheses and findings in the field of public and nonprofit management.  critically analyze scientific papers. Moreover, key competences such as presentation competence, working with academic papers and team competences shall be acquired.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Presentation (40%) and written seminar work (60%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Bernd Helmig</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
